--- a/Eventos.xlsx
+++ b/Eventos.xlsx
@@ -233,12 +233,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -314,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -346,6 +352,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -630,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +681,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -681,12 +696,12 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -701,12 +716,12 @@
       <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -726,7 +741,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -741,12 +756,12 @@
       <c r="F7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -766,7 +781,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -786,7 +801,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -825,7 +840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="135" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>50</v>
       </c>
@@ -858,8 +873,11 @@
     <hyperlink ref="E5" r:id="rId1" display="https://www.visitcovilha.com/locations/igreja-de-s-tiago/"/>
     <hyperlink ref="G6" r:id="rId2"/>
     <hyperlink ref="G8" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>